--- a/data/ship_arrival.xlsx
+++ b/data/ship_arrival.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetOptimize\py-ga-VRPTW\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\Python\NetOptimize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAA3A4-B5A3-47A9-9C52-4EE822546754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB133BA-47A5-488B-8D3C-EDDC593F9C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3384" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,12 +453,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
